--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T08:41:35+00:00</t>
+    <t>2025-10-09T09:07:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T09:07:51+00:00</t>
+    <t>2025-10-09T12:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T12:26:29+00:00</t>
+    <t>2025-10-09T16:04:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T16:04:50+00:00</t>
+    <t>2025-10-09T17:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T17:33:43+00:00</t>
+    <t>2025-10-09T18:52:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T02:17:32+00:00</t>
+    <t>2025-10-21T04:48:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T04:48:52+00:00</t>
+    <t>2025-10-21T09:02:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cause-of-road-crash.xlsx
+++ b/StructureDefinition-cause-of-road-crash.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T09:02:18+00:00</t>
+    <t>2025-10-21T09:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
